--- a/Toronto_Raptors_2025-26_stats.xlsx
+++ b/Toronto_Raptors_2025-26_stats.xlsx
@@ -9,8 +9,12 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Points" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assists" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Points" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rebounds" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3PM" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Points" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Rebounds" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg 3PM" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1640,7 +1644,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1651,143 +1655,588 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Player</t>
+          <t>Game Time (PST)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Avg Points</t>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Gradey Dick</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Jonathan Mogbo</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Brandon Ingram</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Scottie Barnes</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Immanuel Quickley</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>RJ Barrett</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Collin Murray-Boyles</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Ja'Kobe Walter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Jakob Poeltl</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Jamal Shead</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Ochai Agbaji</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Sandro Mamukelashvili</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Jamison Battle</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Brandon Ingram</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>21</v>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>20.7</v>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Scottie Barnes</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>19.9</v>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Immanuel Quickley</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>14.4</v>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sandro Mamukelashvili</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>9</v>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Collin Murray-Boyles</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>8.75</v>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7</v>
+      </c>
+      <c r="M7" t="n">
+        <v>7</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Gradey Dick</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7.8</v>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>12</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Jakob Poeltl</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7.666666666666667</v>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>9</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jamal Shead</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>6.4</v>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>10</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jamison Battle</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Ja'Kobe Walter</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2.714285714285714</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Ochai Agbaji</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2.666666666666667</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Jonathan Mogbo</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1796,6 +2245,612 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Game Time (PST)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Gradey Dick</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Jonathan Mogbo</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Brandon Ingram</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Scottie Barnes</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Immanuel Quickley</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>RJ Barrett</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Collin Murray-Boyles</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Ja'Kobe Walter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Jakob Poeltl</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Jamal Shead</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Ochai Agbaji</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Sandro Mamukelashvili</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Jamison Battle</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1817,13 +2872,174 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Avg Assists</t>
+          <t>Avg Points</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Brandon Ingram</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>RJ Barrett</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Scottie Barnes</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Immanuel Quickley</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Sandro Mamukelashvili</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Collin Murray-Boyles</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Gradey Dick</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Jakob Poeltl</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7.666666666666667</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Jamal Shead</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Jamison Battle</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ja'Kobe Walter</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.714285714285714</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ochai Agbaji</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2.666666666666667</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Jonathan Mogbo</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Assists</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Immanuel Quickley</t>
         </is>
       </c>
@@ -1949,6 +3165,328 @@
       </c>
       <c r="B14" t="n">
         <v>0.125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Rebounds</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Scottie Barnes</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Jakob Poeltl</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Brandon Ingram</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>RJ Barrett</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Immanuel Quickley</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Collin Murray-Boyles</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3.875</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sandro Mamukelashvili</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Ochai Agbaji</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.111111111111111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Gradey Dick</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Jamal Shead</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Jonathan Mogbo</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ja'Kobe Walter</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.285714285714286</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Jamison Battle</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg 3PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>RJ Barrett</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Scottie Barnes</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Immanuel Quickley</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Gradey Dick</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Brandon Ingram</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Jamison Battle</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Jamal Shead</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Collin Murray-Boyles</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sandro Mamukelashvili</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ja'Kobe Walter</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ochai Agbaji</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Jonathan Mogbo</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Jakob Poeltl</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Toronto_Raptors_2025-26_stats.xlsx
+++ b/Toronto_Raptors_2025-26_stats.xlsx
@@ -15,6 +15,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Rebounds" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg 3PM" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Points" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,25 +494,30 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>Garrett Temple</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>Jakob Poeltl</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Jamal Shead</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Ochai Agbaji</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Sandro Mamukelashvili</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Jamison Battle</t>
         </is>
@@ -553,18 +559,21 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>14</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>10</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>4</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>7</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -604,18 +613,21 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>6</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>4</v>
       </c>
-      <c r="M3" t="n">
-        <v>3</v>
-      </c>
       <c r="N3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" t="n">
         <v>4</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -655,18 +667,21 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>4</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>6</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>5</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>16</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -706,18 +721,21 @@
         <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" t="n">
         <v>6</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>4</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>5</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -760,15 +778,18 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>6</v>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
       <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
         <v>10</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -811,15 +832,18 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
         <v>9</v>
       </c>
-      <c r="M7" t="n">
-        <v>3</v>
-      </c>
       <c r="N7" t="n">
+        <v>3</v>
+      </c>
+      <c r="O7" t="n">
         <v>11</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>20</v>
       </c>
     </row>
@@ -862,15 +886,18 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>9</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>4</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -910,18 +937,21 @@
         <v>8</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>8</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>5</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>15</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -961,18 +991,21 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>12</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>12</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1015,16 +1048,127 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
         <v>9</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>10</v>
       </c>
-      <c r="O11" t="n">
-        <v>0</v>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>25</v>
+      </c>
+      <c r="F12" t="n">
+        <v>15</v>
+      </c>
+      <c r="G12" t="n">
+        <v>24</v>
+      </c>
+      <c r="H12" t="n">
+        <v>13</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9</v>
+      </c>
+      <c r="J12" t="n">
+        <v>6</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>12</v>
+      </c>
+      <c r="M12" t="n">
+        <v>6</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" t="n">
+        <v>28</v>
+      </c>
+      <c r="G13" t="n">
+        <v>25</v>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>20</v>
+      </c>
+      <c r="M13" t="n">
+        <v>8</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>13</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1038,7 +1182,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1099,25 +1243,30 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>Garrett Temple</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>Jakob Poeltl</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Jamal Shead</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Ochai Agbaji</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Sandro Mamukelashvili</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Jamison Battle</t>
         </is>
@@ -1159,18 +1308,21 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
         <v>5</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1210,18 +1362,21 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" t="n">
         <v>4</v>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
       <c r="N3" t="n">
         <v>1</v>
       </c>
       <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1261,18 +1416,21 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>4</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>8</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1312,18 +1470,21 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
         <v>5</v>
       </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
       <c r="N5" t="n">
         <v>2</v>
       </c>
       <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1366,15 +1527,18 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>4</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1417,15 +1581,18 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
         <v>4</v>
       </c>
-      <c r="M7" t="n">
-        <v>2</v>
-      </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1468,15 +1635,18 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>5</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1519,15 +1689,18 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>8</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1567,18 +1740,21 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1621,15 +1797,126 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
         <v>5</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3</v>
+      </c>
+      <c r="M13" t="n">
+        <v>7</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1644,7 +1931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,25 +1992,30 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>Garrett Temple</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>Jakob Poeltl</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Jamal Shead</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Ochai Agbaji</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Sandro Mamukelashvili</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Jamison Battle</t>
         </is>
@@ -1765,18 +2057,21 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>6</v>
       </c>
-      <c r="L2" t="n">
-        <v>2</v>
-      </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O2" t="n">
         <v>4</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1816,18 +2111,21 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>5</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1867,18 +2165,21 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>8</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2219,21 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1972,15 +2276,18 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2023,15 +2330,18 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>7</v>
       </c>
       <c r="N7" t="n">
+        <v>7</v>
+      </c>
+      <c r="O7" t="n">
         <v>6</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2077,12 +2387,15 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2122,18 +2435,21 @@
         <v>3</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>9</v>
       </c>
-      <c r="L9" t="n">
-        <v>2</v>
-      </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>7</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2173,18 +2489,21 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>10</v>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>6</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2227,16 +2546,127 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>11</v>
+      </c>
+      <c r="G12" t="n">
+        <v>8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>10</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>7</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>5</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2250,7 +2680,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2311,25 +2741,30 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>Garrett Temple</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>Jakob Poeltl</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Jamal Shead</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Ochai Agbaji</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Sandro Mamukelashvili</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Jamison Battle</t>
         </is>
@@ -2374,15 +2809,18 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2434,6 +2872,9 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2476,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
@@ -2485,6 +2926,9 @@
         <v>1</v>
       </c>
       <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2527,15 +2971,18 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2578,15 +3025,18 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2629,15 +3079,18 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2680,15 +3133,18 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2731,15 +3187,18 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
+        <v>3</v>
+      </c>
+      <c r="P9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2788,9 +3247,12 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2833,15 +3295,126 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2</v>
+      </c>
+      <c r="P13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2856,7 +3429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2883,27 +3456,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>Scottie Barnes</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.7</v>
+        <v>20.16666666666667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Scottie Barnes</t>
+          <t>RJ Barrett</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.9</v>
+        <v>19.08333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -2913,47 +3486,47 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.4</v>
+        <v>16.08333333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sandro Mamukelashvili</t>
+          <t>Jakob Poeltl</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Collin Murray-Boyles</t>
+          <t>Sandro Mamukelashvili</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.75</v>
+        <v>9.363636363636363</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Gradey Dick</t>
+          <t>Collin Murray-Boyles</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.8</v>
+        <v>8.777777777777779</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Jakob Poeltl</t>
+          <t>Gradey Dick</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.666666666666667</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="10">
@@ -2963,7 +3536,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="11">
@@ -2973,7 +3546,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="12">
@@ -2983,7 +3556,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.714285714285714</v>
+        <v>3.222222222222222</v>
       </c>
     </row>
     <row r="13">
@@ -3003,7 +3576,17 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Garrett Temple</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3017,7 +3600,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3044,27 +3627,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.3</v>
+        <v>6.166666666666667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jamal Shead</t>
+          <t>Scottie Barnes</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>5.166666666666667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Scottie Barnes</t>
+          <t>Jamal Shead</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.9</v>
+        <v>5.166666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -3084,27 +3667,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sandro Mamukelashvili</t>
+          <t>Jakob Poeltl</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jakob Poeltl</t>
+          <t>Sandro Mamukelashvili</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.666666666666667</v>
+        <v>1.818181818181818</v>
       </c>
     </row>
     <row r="9">
@@ -3114,13 +3697,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.25</v>
+        <v>1.222222222222222</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jonathan Mogbo</t>
+          <t>Ja'Kobe Walter</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -3140,7 +3723,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ja'Kobe Walter</t>
+          <t>Jonathan Mogbo</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -3154,7 +3737,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14">
@@ -3164,7 +3747,17 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.125</v>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Garrett Temple</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3178,7 +3771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3205,7 +3798,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>7.583333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -3215,7 +3808,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.666666666666667</v>
+        <v>7.125</v>
       </c>
     </row>
     <row r="4">
@@ -3225,7 +3818,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.3</v>
+        <v>6.083333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -3235,7 +3828,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -3245,7 +3838,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.4</v>
+        <v>4.416666666666667</v>
       </c>
     </row>
     <row r="7">
@@ -3255,7 +3848,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.875</v>
+        <v>3.888888888888889</v>
       </c>
     </row>
     <row r="8">
@@ -3265,7 +3858,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.4</v>
+        <v>3.545454545454545</v>
       </c>
     </row>
     <row r="9">
@@ -3285,7 +3878,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -3295,23 +3888,23 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.9</v>
+        <v>1.833333333333333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jonathan Mogbo</t>
+          <t>Ja'Kobe Walter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.5</v>
+        <v>1.444444444444444</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ja'Kobe Walter</t>
+          <t>Jonathan Mogbo</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -3325,7 +3918,17 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.875</v>
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Garrett Temple</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3339,7 +3942,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3362,11 +3965,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>Immanuel Quickley</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.1</v>
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -3376,17 +3979,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Immanuel Quickley</t>
+          <t>RJ Barrett</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="5">
@@ -3396,53 +3999,53 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brandon Ingram</t>
+          <t>Jamal Shead</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jamison Battle</t>
+          <t>Brandon Ingram</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.25</v>
+        <v>1.166666666666667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jamal Shead</t>
+          <t>Jamison Battle</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Collin Murray-Boyles</t>
+          <t>Sandro Mamukelashvili</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>1.090909090909091</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sandro Mamukelashvili</t>
+          <t>Collin Murray-Boyles</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -3456,7 +4059,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="12">
@@ -3482,11 +4085,319 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Garrett Temple</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Jakob Poeltl</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>0</v>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Game Time (PST)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Team Points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Game Total Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>138</v>
+      </c>
+      <c r="D2" t="n">
+        <v>118</v>
+      </c>
+      <c r="E2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>116</v>
+      </c>
+      <c r="D3" t="n">
+        <v>122</v>
+      </c>
+      <c r="E3" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>129</v>
+      </c>
+      <c r="D4" t="n">
+        <v>139</v>
+      </c>
+      <c r="E4" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>103</v>
+      </c>
+      <c r="D5" t="n">
+        <v>121</v>
+      </c>
+      <c r="E5" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>121</v>
+      </c>
+      <c r="D6" t="n">
+        <v>139</v>
+      </c>
+      <c r="E6" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>112</v>
+      </c>
+      <c r="D7" t="n">
+        <v>101</v>
+      </c>
+      <c r="E7" t="n">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>117</v>
+      </c>
+      <c r="D8" t="n">
+        <v>104</v>
+      </c>
+      <c r="E8" t="n">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>128</v>
+      </c>
+      <c r="D9" t="n">
+        <v>100</v>
+      </c>
+      <c r="E9" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>109</v>
+      </c>
+      <c r="D10" t="n">
+        <v>97</v>
+      </c>
+      <c r="E10" t="n">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>120</v>
+      </c>
+      <c r="D11" t="n">
+        <v>130</v>
+      </c>
+      <c r="E11" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>119</v>
+      </c>
+      <c r="D12" t="n">
+        <v>109</v>
+      </c>
+      <c r="E12" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>126</v>
+      </c>
+      <c r="D13" t="n">
+        <v>113</v>
+      </c>
+      <c r="E13" t="n">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
